--- a/src/main/resources/dataManagement/TestData.xlsx
+++ b/src/main/resources/dataManagement/TestData.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="UserManagement" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageUsers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,25 +21,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ExpectedTitle</t>
   </si>
   <si>
     <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>geethuaravind</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>geethu@aravind</t>
+  </si>
+  <si>
+    <t>UserAccountName</t>
+  </si>
+  <si>
+    <t>Geethu VS</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>123@gmail.com</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>ResetErrorMessage</t>
+  </si>
+  <si>
+    <t>PanelValues</t>
+  </si>
+  <si>
+    <t>Users;Roles;Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>LoginErrorMessage</t>
+  </si>
+  <si>
+    <t>invalidEmailErrorMessage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,13 +127,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,27 +419,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>